--- a/Lenzerheide (SUI)_Men 10km Sprint_2023-2024.xlsx
+++ b/Lenzerheide (SUI)_Men 10km Sprint_2023-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>Ranking</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>9.5km (PT)</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
   <si>
     <t>MAGAZEEV P.</t>
@@ -794,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,19 +873,22 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>83.39999999999999</v>
@@ -941,8 +947,11 @@
       <c r="W2">
         <v>1501.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>1552.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>34</v>
       </c>
@@ -950,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>86.39999999999999</v>
@@ -1012,19 +1021,22 @@
       <c r="W3">
         <v>1462</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>1509.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>81.8</v>
@@ -1083,8 +1095,11 @@
       <c r="W4">
         <v>1510.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>1556.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>42</v>
       </c>
@@ -1092,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>84.5</v>
@@ -1154,8 +1169,11 @@
       <c r="W5">
         <v>1479.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>1527.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>82</v>
       </c>
@@ -1163,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>84.89999999999999</v>
@@ -1225,8 +1243,11 @@
       <c r="W6">
         <v>1572.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>1621.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1234,10 +1255,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>83.39999999999999</v>
@@ -1296,19 +1317,22 @@
       <c r="W7">
         <v>1427.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>1474.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>86.19999999999999</v>
@@ -1367,19 +1391,22 @@
       <c r="W8">
         <v>1502.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>1551.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>84.69999999999999</v>
@@ -1438,8 +1465,11 @@
       <c r="W9">
         <v>1388.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>1434.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1447,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>83.5</v>
@@ -1509,19 +1539,22 @@
       <c r="W10">
         <v>1388.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>1434.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>84.59999999999999</v>
@@ -1580,19 +1613,22 @@
       <c r="W11">
         <v>1423.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>1470.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>85</v>
@@ -1651,8 +1687,11 @@
       <c r="W12">
         <v>1497</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1660,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>77.09999999999999</v>
@@ -1722,19 +1761,22 @@
       <c r="W13">
         <v>1386</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>1432.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14">
         <v>84.09999999999999</v>
@@ -1793,19 +1835,22 @@
       <c r="W14">
         <v>1487.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>1533.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>81</v>
@@ -1864,19 +1909,22 @@
       <c r="W15">
         <v>1474.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>1520.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>85.39999999999999</v>
@@ -1935,8 +1983,11 @@
       <c r="W16">
         <v>1457.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>1502.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1944,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>85.69999999999999</v>
@@ -2006,8 +2057,11 @@
       <c r="W17">
         <v>1411.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>1455.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>26</v>
       </c>
@@ -2015,10 +2069,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18">
         <v>85.39999999999999</v>
@@ -2077,8 +2131,11 @@
       <c r="W18">
         <v>1447.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>1492.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>47</v>
       </c>
@@ -2086,10 +2143,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -2148,8 +2205,11 @@
       <c r="W19">
         <v>1496.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>1543.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>62</v>
       </c>
@@ -2157,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>86.69999999999999</v>
@@ -2219,19 +2279,22 @@
       <c r="W20">
         <v>1514.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>1563.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21">
         <v>80.69999999999999</v>
@@ -2290,19 +2353,22 @@
       <c r="W21">
         <v>1469</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>1516.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22">
         <v>85</v>
@@ -2361,19 +2427,22 @@
       <c r="W22">
         <v>1437.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>1485.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23">
         <v>80.89999999999999</v>
@@ -2432,19 +2501,22 @@
       <c r="W23">
         <v>1437.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>1483.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>88.19999999999999</v>
@@ -2503,19 +2575,22 @@
       <c r="W24">
         <v>1470.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>1515.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>84.09999999999999</v>
@@ -2574,19 +2649,22 @@
       <c r="W25">
         <v>1442.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>1487.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>86.69999999999999</v>
@@ -2645,19 +2723,22 @@
       <c r="W26">
         <v>1488</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>1533.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>86.39999999999999</v>
@@ -2716,8 +2797,11 @@
       <c r="W27">
         <v>1457.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2725,10 +2809,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28">
         <v>85.3</v>
@@ -2787,19 +2871,22 @@
       <c r="W28">
         <v>1349.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>1395.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29">
         <v>83.89999999999999</v>
@@ -2858,19 +2945,22 @@
       <c r="W29">
         <v>1437.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>1485.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30">
         <v>87.19999999999999</v>
@@ -2929,8 +3019,11 @@
       <c r="W30">
         <v>1421.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>1470.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>51</v>
       </c>
@@ -2938,10 +3031,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31">
         <v>86.69999999999999</v>
@@ -3000,19 +3093,22 @@
       <c r="W31">
         <v>1499.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>1547.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32">
         <v>83.69999999999999</v>
@@ -3071,19 +3167,22 @@
       <c r="W32">
         <v>1441.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>1488.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>84.09999999999999</v>
@@ -3142,8 +3241,11 @@
       <c r="W33">
         <v>1453.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>1500.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3151,10 +3253,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34">
         <v>80.8</v>
@@ -3213,19 +3315,22 @@
       <c r="W34">
         <v>1409.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>1455.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35">
         <v>82.59999999999999</v>
@@ -3284,8 +3389,11 @@
       <c r="W35">
         <v>1454.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>1501.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>18</v>
       </c>
@@ -3293,10 +3401,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>82.59999999999999</v>
@@ -3355,19 +3463,22 @@
       <c r="W36">
         <v>1431</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>1478.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37">
         <v>92.69999999999999</v>
@@ -3426,8 +3537,11 @@
       <c r="W37">
         <v>1527.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>73</v>
       </c>
@@ -3435,10 +3549,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>92.39999999999999</v>
@@ -3497,8 +3611,11 @@
       <c r="W38">
         <v>1533.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>1581.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>78</v>
       </c>
@@ -3506,10 +3623,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39">
         <v>81.19999999999999</v>
@@ -3568,8 +3685,11 @@
       <c r="W39">
         <v>1564.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>1614.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>10</v>
       </c>
@@ -3577,10 +3697,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <v>84.39999999999999</v>
@@ -3639,19 +3759,22 @@
       <c r="W40">
         <v>1415.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>1464.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41">
         <v>85.3</v>
@@ -3710,19 +3833,22 @@
       <c r="W41">
         <v>1509.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>1559.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>85.69999999999999</v>
@@ -3781,19 +3907,22 @@
       <c r="W42">
         <v>1469.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>1517.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>83.69999999999999</v>
@@ -3852,8 +3981,11 @@
       <c r="W43">
         <v>1426</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>1471.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>17</v>
       </c>
@@ -3861,10 +3993,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44">
         <v>87.3</v>
@@ -3923,8 +4055,11 @@
       <c r="W44">
         <v>1430.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>1476.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>85</v>
       </c>
@@ -3932,10 +4067,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45">
         <v>85.59999999999999</v>
@@ -3994,19 +4129,22 @@
       <c r="W45">
         <v>1584.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>1631.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E46">
         <v>86</v>
@@ -4065,19 +4203,22 @@
       <c r="W46">
         <v>1524</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>1574.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>83.09999999999999</v>
@@ -4136,19 +4277,22 @@
       <c r="W47">
         <v>1435.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>1483.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48">
         <v>82.39999999999999</v>
@@ -4207,8 +4351,11 @@
       <c r="W48">
         <v>1425.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>1472.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>41</v>
       </c>
@@ -4216,10 +4363,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>91</v>
@@ -4278,8 +4425,11 @@
       <c r="W49">
         <v>1477.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>1523.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>19</v>
       </c>
@@ -4287,10 +4437,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50">
         <v>81.8</v>
@@ -4349,19 +4499,22 @@
       <c r="W50">
         <v>1433.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>1481.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51">
         <v>84.69999999999999</v>
@@ -4420,8 +4573,11 @@
       <c r="W51">
         <v>1422.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>1467.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>81</v>
       </c>
@@ -4429,10 +4585,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52">
         <v>84.09999999999999</v>
@@ -4491,8 +4647,11 @@
       <c r="W52">
         <v>1569.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>1616.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>2</v>
       </c>
@@ -4500,10 +4659,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>80.3</v>
@@ -4562,8 +4721,11 @@
       <c r="W53">
         <v>1356</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>1401.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>6</v>
       </c>
@@ -4571,10 +4733,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54">
         <v>83.5</v>
@@ -4633,8 +4795,11 @@
       <c r="W54">
         <v>1392</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>1440.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>76</v>
       </c>
@@ -4642,10 +4807,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E55">
         <v>83.69999999999999</v>
@@ -4704,8 +4869,11 @@
       <c r="W55">
         <v>1559.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>1608.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>46</v>
       </c>
@@ -4713,10 +4881,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56">
         <v>86.09999999999999</v>
@@ -4775,8 +4943,11 @@
       <c r="W56">
         <v>1493.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>1541.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>86</v>
       </c>
@@ -4784,10 +4955,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>90.19999999999999</v>
@@ -4846,8 +5017,11 @@
       <c r="W57">
         <v>1585.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>1633.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>72</v>
       </c>
@@ -4855,10 +5029,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58">
         <v>86.89999999999999</v>
@@ -4917,19 +5091,22 @@
       <c r="W58">
         <v>1533.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>1581.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E59">
         <v>88.8</v>
@@ -4988,8 +5165,11 @@
       <c r="W59">
         <v>1527.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>1573.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>61</v>
       </c>
@@ -4997,10 +5177,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60">
         <v>82.5</v>
@@ -5059,8 +5239,11 @@
       <c r="W60">
         <v>1514.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>1562.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>80</v>
       </c>
@@ -5068,10 +5251,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E61">
         <v>89.39999999999999</v>
@@ -5130,8 +5313,11 @@
       <c r="W61">
         <v>1566.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>1616.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>9</v>
       </c>
@@ -5139,10 +5325,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>82.39999999999999</v>
@@ -5201,8 +5387,11 @@
       <c r="W62">
         <v>1414.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>1460.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>92</v>
       </c>
@@ -5210,10 +5399,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63">
         <v>93.89999999999999</v>
@@ -5272,8 +5461,11 @@
       <c r="W63">
         <v>1661.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5281,10 +5473,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E64">
         <v>91.3</v>
@@ -5343,8 +5535,11 @@
       <c r="W64">
         <v>1515.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>1565.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65">
         <v>53</v>
       </c>
@@ -5352,10 +5547,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E65">
         <v>88.89999999999999</v>
@@ -5414,8 +5609,11 @@
       <c r="W65">
         <v>1502.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>1551.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66">
         <v>75</v>
       </c>
@@ -5423,10 +5621,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E66">
         <v>85.3</v>
@@ -5485,19 +5683,22 @@
       <c r="W66">
         <v>1547.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>1595.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67">
         <v>84.39999999999999</v>
@@ -5556,19 +5757,22 @@
       <c r="W67">
         <v>1565.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>1613.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68">
         <v>93.3</v>
@@ -5627,19 +5831,22 @@
       <c r="W68">
         <v>1623</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>1671.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B69">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E69">
         <v>91.39999999999999</v>
@@ -5698,8 +5905,11 @@
       <c r="W69">
         <v>1456.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>1504.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70">
         <v>64</v>
       </c>
@@ -5707,10 +5917,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E70">
         <v>86.09999999999999</v>
@@ -5769,19 +5979,22 @@
       <c r="W70">
         <v>1521.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>1569.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E71">
         <v>86.19999999999999</v>
@@ -5840,19 +6053,22 @@
       <c r="W71">
         <v>1529.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>1576.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B72">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E72">
         <v>86.59999999999999</v>
@@ -5911,19 +6127,22 @@
       <c r="W72">
         <v>1503.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>1549.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <v>90.3</v>
@@ -5982,19 +6201,22 @@
       <c r="W73">
         <v>1527.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>1576.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E74">
         <v>95.39999999999999</v>
@@ -6053,19 +6275,22 @@
       <c r="W74">
         <v>1576</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>1626.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B75">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>87.89999999999999</v>
@@ -6124,8 +6349,11 @@
       <c r="W75">
         <v>1474.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>1521.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6133,10 +6361,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E76">
         <v>90.5</v>
@@ -6195,19 +6423,22 @@
       <c r="W76">
         <v>1513.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>1561.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77">
         <v>83.8</v>
@@ -6266,19 +6497,22 @@
       <c r="W77">
         <v>1509.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>1556.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B78">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E78">
         <v>83.89999999999999</v>
@@ -6337,19 +6571,22 @@
       <c r="W78">
         <v>1453.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>1501.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E79">
         <v>85.8</v>
@@ -6408,8 +6645,11 @@
       <c r="W79">
         <v>1576.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>1625.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80">
         <v>74</v>
       </c>
@@ -6417,10 +6657,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E80">
         <v>88.8</v>
@@ -6479,8 +6719,11 @@
       <c r="W80">
         <v>1545.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>1594.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>90</v>
       </c>
@@ -6488,10 +6731,10 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E81">
         <v>87.8</v>
@@ -6550,19 +6793,22 @@
       <c r="W81">
         <v>1629.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>1681.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82">
         <v>88.5</v>
@@ -6621,19 +6867,22 @@
       <c r="W82">
         <v>1507.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>1559.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E83">
         <v>88</v>
@@ -6692,8 +6941,11 @@
       <c r="W83">
         <v>1563.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>1614.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>33</v>
       </c>
@@ -6701,10 +6953,10 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E84">
         <v>88.59999999999999</v>
@@ -6763,8 +7015,11 @@
       <c r="W84">
         <v>1459</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84">
+        <v>1508.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85">
         <v>40</v>
       </c>
@@ -6772,10 +7027,10 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>90.5</v>
@@ -6834,19 +7089,22 @@
       <c r="W85">
         <v>1474.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>1522.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E86">
         <v>85.39999999999999</v>
@@ -6905,19 +7163,22 @@
       <c r="W86">
         <v>1527.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86">
+        <v>1574.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87">
         <v>94.59999999999999</v>
@@ -6976,19 +7237,22 @@
       <c r="W87">
         <v>1622.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>1671.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B88">
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88">
         <v>86.39999999999999</v>
@@ -7047,8 +7311,11 @@
       <c r="W88">
         <v>1496.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>1545.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89">
         <v>91</v>
       </c>
@@ -7056,10 +7323,10 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E89">
         <v>90</v>
@@ -7118,8 +7385,11 @@
       <c r="W89">
         <v>1648.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>1698.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90">
         <v>93</v>
       </c>
@@ -7127,10 +7397,10 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E90">
         <v>93.09999999999999</v>
@@ -7189,8 +7459,11 @@
       <c r="W90">
         <v>1754.9</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>1809.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91">
         <v>50</v>
       </c>
@@ -7198,10 +7471,10 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E91">
         <v>87.89999999999999</v>
@@ -7260,8 +7533,11 @@
       <c r="W91">
         <v>1498</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>1546.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92">
         <v>87</v>
       </c>
@@ -7269,10 +7545,10 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92">
         <v>89.09999999999999</v>
@@ -7331,8 +7607,11 @@
       <c r="W92">
         <v>1609.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>1661.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93">
         <v>65</v>
       </c>
@@ -7340,10 +7619,10 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E93">
         <v>89.5</v>
@@ -7401,6 +7680,9 @@
       </c>
       <c r="W93">
         <v>1521.9</v>
+      </c>
+      <c r="X93">
+        <v>1572.4</v>
       </c>
     </row>
   </sheetData>
